--- a/Assignment 4 & 5.xlsx
+++ b/Assignment 4 & 5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE0499E-965C-48F0-B967-561FAC639E85}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5D1E94-0848-4260-92D3-A06C1DDB9E87}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>ORG</t>
   </si>
@@ -131,16 +131,39 @@
   </si>
   <si>
     <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Data used can be found:</t>
+  </si>
+  <si>
+    <t>https://github.com/synalp/NER/tree/master/corpus/CoNLL-2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This dataset is a manual annotatation of a subset of RCV1 (Reuters Corpus Volume 1)</t>
+  </si>
+  <si>
+    <t>found here: https://trec.nist.gov/data/reuters/reuters.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,14 +201,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,1271 +490,1242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="20" max="20" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="V1">
-        <v>0.50254016300000004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="V2">
+        <v>0.48039203899999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>46487</v>
-      </c>
-      <c r="D2">
-        <v>443</v>
-      </c>
-      <c r="E2">
-        <v>241</v>
-      </c>
-      <c r="F2">
-        <v>441</v>
-      </c>
-      <c r="G2">
-        <v>445</v>
-      </c>
-      <c r="H2">
-        <v>48057</v>
-      </c>
-      <c r="J2">
-        <v>46487</v>
-      </c>
-      <c r="K2">
+      <c r="C3">
+        <v>1047</v>
+      </c>
+      <c r="D3">
+        <v>1335</v>
+      </c>
+      <c r="E3">
+        <v>2177</v>
+      </c>
+      <c r="F3">
+        <v>204</v>
+      </c>
+      <c r="G3">
+        <v>343</v>
+      </c>
+      <c r="J3">
+        <v>4487</v>
+      </c>
+      <c r="K3">
         <v>1570</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>3240</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>513</v>
       </c>
-      <c r="P2">
-        <v>0.98908499999999999</v>
-      </c>
-      <c r="Q2">
-        <v>0.96733000000000002</v>
-      </c>
-      <c r="R2">
-        <v>0.97808700000000004</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="P3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V3" t="s">
         <v>14</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W3" t="s">
         <v>15</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>193</v>
-      </c>
-      <c r="D3">
-        <v>355</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <v>687</v>
-      </c>
-      <c r="J3">
-        <v>355</v>
-      </c>
-      <c r="K3">
-        <v>332</v>
-      </c>
-      <c r="L3">
-        <v>49372</v>
-      </c>
-      <c r="M3">
-        <v>493</v>
-      </c>
-      <c r="P3">
-        <v>0.418632</v>
-      </c>
-      <c r="Q3">
-        <v>0.51673899999999995</v>
-      </c>
-      <c r="R3">
-        <v>0.46254099999999998</v>
-      </c>
-      <c r="U3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="W3">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="X3">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="Y3">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>1919</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>2806</v>
       </c>
       <c r="E4">
+        <v>191</v>
+      </c>
+      <c r="F4">
+        <v>981</v>
+      </c>
+      <c r="G4">
+        <v>2529</v>
+      </c>
+      <c r="J4">
+        <v>2355</v>
+      </c>
+      <c r="K4">
+        <v>332</v>
+      </c>
+      <c r="L4">
+        <v>2372</v>
+      </c>
+      <c r="M4">
         <v>493</v>
       </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>603</v>
-      </c>
-      <c r="J4">
-        <v>493</v>
-      </c>
-      <c r="K4">
-        <v>110</v>
-      </c>
-      <c r="L4">
-        <v>49234</v>
-      </c>
-      <c r="M4">
-        <v>292</v>
-      </c>
       <c r="P4">
-        <v>0.62802500000000006</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.81757899999999994</v>
+        <v>0.998</v>
       </c>
       <c r="R4">
-        <v>0.71037499999999998</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V4">
-        <v>0.68799999999999994</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="W4">
-        <v>0.28199999999999997</v>
+        <v>0.63</v>
       </c>
       <c r="X4">
-        <v>0.4</v>
+        <v>0.72</v>
       </c>
       <c r="Y4">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>262</v>
+        <v>472</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>726</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>2732</v>
       </c>
       <c r="F5">
-        <v>2392</v>
+        <v>810</v>
       </c>
       <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>2717</v>
+        <v>1333</v>
       </c>
       <c r="J5">
-        <v>2392</v>
+        <v>1493</v>
       </c>
       <c r="K5">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="L5">
-        <v>47335</v>
+        <v>1244</v>
       </c>
       <c r="M5">
-        <v>520</v>
+        <v>292</v>
       </c>
       <c r="P5">
-        <v>0.82142899999999996</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.88038300000000003</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="R5">
-        <v>0.849885</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="U5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V5">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="W5">
-        <v>0.184</v>
+        <v>0.66</v>
       </c>
       <c r="X5">
-        <v>0.26100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Y5">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>963</v>
+      </c>
+      <c r="D6">
+        <v>2612</v>
+      </c>
+      <c r="E6">
+        <v>352</v>
+      </c>
+      <c r="F6">
+        <v>2780</v>
+      </c>
+      <c r="G6">
+        <v>2329</v>
+      </c>
+      <c r="J6">
+        <v>2392</v>
+      </c>
+      <c r="K6">
+        <v>325</v>
+      </c>
+      <c r="L6">
+        <v>1335</v>
+      </c>
+      <c r="M6">
+        <v>520</v>
+      </c>
+      <c r="P6">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>0.64</v>
+      </c>
+      <c r="W6">
+        <v>0.75</v>
+      </c>
+      <c r="X6">
+        <v>0.68</v>
+      </c>
+      <c r="Y6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>49727</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>227</v>
+      </c>
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>22</v>
       </c>
-      <c r="V6">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="W6">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="Y6">
+      <c r="V7">
+        <v>0.89</v>
+      </c>
+      <c r="W7">
+        <v>0.48</v>
+      </c>
+      <c r="X7">
+        <v>0.45</v>
+      </c>
+      <c r="Y7">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
-        <v>47000</v>
-      </c>
-      <c r="D7">
-        <v>848</v>
-      </c>
-      <c r="E7">
-        <v>785</v>
-      </c>
-      <c r="F7">
-        <v>2912</v>
-      </c>
-      <c r="G7">
-        <v>519</v>
-      </c>
-      <c r="H7">
-        <v>52064</v>
-      </c>
-      <c r="J7">
-        <v>49727</v>
-      </c>
-      <c r="K7">
+      <c r="C8">
+        <v>4401</v>
+      </c>
+      <c r="D8">
+        <v>7479</v>
+      </c>
+      <c r="E8">
+        <v>5452</v>
+      </c>
+      <c r="F8">
+        <v>4775</v>
+      </c>
+      <c r="G8">
+        <v>6534</v>
+      </c>
+      <c r="J8">
+        <v>10231</v>
+      </c>
+      <c r="K8">
         <v>2337</v>
       </c>
-      <c r="L7">
-        <v>198908</v>
-      </c>
-      <c r="M7">
+      <c r="L8">
+        <v>8574</v>
+      </c>
+      <c r="M8">
         <v>2337</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O8" t="s">
         <v>34</v>
       </c>
-      <c r="Q7">
-        <v>0.95511299999999999</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="Q8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="U8" t="s">
         <v>24</v>
       </c>
-      <c r="V7">
-        <v>0.755</v>
-      </c>
-      <c r="W7">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="X7">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="Y7">
+      <c r="V8">
+        <v>0.86</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+      <c r="X8">
+        <v>0.6</v>
+      </c>
+      <c r="Y8">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="U8" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
         <v>25</v>
       </c>
-      <c r="V8">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="W8">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="X8">
-        <v>0.25</v>
-      </c>
-      <c r="Y8">
+      <c r="V9">
+        <v>0.64</v>
+      </c>
+      <c r="W9">
+        <v>0.51</v>
+      </c>
+      <c r="X9">
+        <v>0.85</v>
+      </c>
+      <c r="Y9">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="U9" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" t="s">
         <v>26</v>
       </c>
-      <c r="V9">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="W9">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="X9">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="Y9">
+      <c r="V10">
+        <v>0.76</v>
+      </c>
+      <c r="W10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X10">
+        <v>0.65</v>
+      </c>
+      <c r="Y10">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>4</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M11" t="s">
         <v>7</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P11" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>9</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R11" t="s">
         <v>10</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U11" t="s">
         <v>27</v>
       </c>
-      <c r="V10">
-        <v>0.872</v>
-      </c>
-      <c r="W10">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="X10">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="Y10">
+      <c r="V11">
+        <v>0.45</v>
+      </c>
+      <c r="W11">
+        <v>0.51</v>
+      </c>
+      <c r="X11">
+        <v>0.84</v>
+      </c>
+      <c r="Y11">
         <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>44874</v>
-      </c>
-      <c r="D11">
-        <v>293</v>
-      </c>
-      <c r="E11">
-        <v>161</v>
-      </c>
-      <c r="F11">
-        <v>311</v>
-      </c>
-      <c r="G11">
-        <v>232</v>
-      </c>
-      <c r="H11">
-        <v>45871</v>
-      </c>
-      <c r="J11">
-        <v>44874</v>
-      </c>
-      <c r="K11">
-        <v>997</v>
-      </c>
-      <c r="L11">
-        <v>3285</v>
-      </c>
-      <c r="M11">
-        <v>2126</v>
-      </c>
-      <c r="P11">
-        <v>0.954766</v>
-      </c>
-      <c r="Q11">
-        <v>0.97826500000000005</v>
-      </c>
-      <c r="R11">
-        <v>0.96637300000000004</v>
-      </c>
-      <c r="U11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="W11">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="X11">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="Y11">
-        <v>1251</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1175</v>
+        <v>2341</v>
       </c>
       <c r="D12">
-        <v>410</v>
+        <v>2102</v>
       </c>
       <c r="E12">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="F12">
-        <v>213</v>
+        <v>1888</v>
       </c>
       <c r="G12">
-        <v>116</v>
-      </c>
-      <c r="H12">
-        <v>2012</v>
+        <v>1140</v>
       </c>
       <c r="J12">
-        <v>410</v>
+        <v>1874</v>
       </c>
       <c r="K12">
-        <v>1602</v>
+        <v>997</v>
       </c>
       <c r="L12">
-        <v>47749</v>
+        <v>2285</v>
       </c>
       <c r="M12">
-        <v>438</v>
+        <v>2126</v>
       </c>
       <c r="P12">
-        <v>0.483491</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="Q12">
-        <v>0.20377700000000001</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="R12">
-        <v>0.286713</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V12">
-        <v>0.8115</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="W12">
-        <v>0.60911000000000004</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="X12">
-        <v>0.69589000000000001</v>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Y12">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>1669</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="E13">
-        <v>487</v>
+        <v>2062</v>
       </c>
       <c r="F13">
-        <v>61</v>
+        <v>1699</v>
       </c>
       <c r="G13">
-        <v>38</v>
-      </c>
-      <c r="H13">
-        <v>807</v>
+        <v>1774</v>
       </c>
       <c r="J13">
-        <v>487</v>
+        <v>410</v>
       </c>
       <c r="K13">
-        <v>320</v>
+        <v>1602</v>
       </c>
       <c r="L13">
-        <v>47672</v>
+        <v>1249</v>
       </c>
       <c r="M13">
-        <v>298</v>
+        <v>438</v>
       </c>
       <c r="P13">
-        <v>0.62038199999999999</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="Q13">
-        <v>0.60346999999999995</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="R13">
-        <v>0.61180900000000005</v>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13">
+        <v>0.8115</v>
+      </c>
+      <c r="W13">
+        <v>0.60911000000000004</v>
+      </c>
+      <c r="X13">
+        <v>0.69589000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>367</v>
+        <v>2131</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>2424</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>1823</v>
       </c>
       <c r="F14">
-        <v>2300</v>
+        <v>1277</v>
       </c>
       <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14">
-        <v>2777</v>
+        <v>441</v>
       </c>
       <c r="J14">
-        <v>2300</v>
+        <v>487</v>
       </c>
       <c r="K14">
-        <v>477</v>
+        <v>320</v>
       </c>
       <c r="L14">
-        <v>45859</v>
+        <v>1672</v>
       </c>
       <c r="M14">
-        <v>612</v>
+        <v>298</v>
       </c>
       <c r="P14">
-        <v>0.78983499999999995</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="Q14">
-        <v>0.82823199999999997</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="R14">
-        <v>0.80857800000000002</v>
-      </c>
-      <c r="U14" t="s">
-        <v>11</v>
-      </c>
-      <c r="V14">
-        <v>0.61274740000000005</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>402</v>
+        <v>135</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>1957</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>1537</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>2188</v>
       </c>
       <c r="G15">
         <v>88</v>
       </c>
-      <c r="H15">
-        <v>597</v>
-      </c>
       <c r="J15">
-        <v>88</v>
+        <v>2300</v>
       </c>
       <c r="K15">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="L15">
-        <v>48071</v>
+        <v>1859</v>
       </c>
       <c r="M15">
-        <v>431</v>
+        <v>612</v>
       </c>
       <c r="P15">
-        <v>0.16955700000000001</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="Q15">
-        <v>0.14740400000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="R15">
-        <v>0.15770600000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" t="s">
-        <v>15</v>
-      </c>
-      <c r="X15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="V15">
+        <v>0.5903294</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>88</v>
+      </c>
+      <c r="K16">
+        <v>509</v>
+      </c>
+      <c r="L16">
+        <v>2871</v>
+      </c>
+      <c r="M16">
+        <v>431</v>
+      </c>
+      <c r="P16">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="Q16">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="R16">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
-        <v>47000</v>
-      </c>
-      <c r="D16">
-        <v>848</v>
-      </c>
-      <c r="E16">
-        <v>785</v>
-      </c>
-      <c r="F16">
-        <v>2912</v>
-      </c>
-      <c r="G16">
-        <v>519</v>
-      </c>
-      <c r="H16">
-        <v>52064</v>
-      </c>
-      <c r="J16">
-        <v>48159</v>
-      </c>
-      <c r="K16">
+      <c r="C17">
+        <v>6401</v>
+      </c>
+      <c r="D17">
+        <v>6479</v>
+      </c>
+      <c r="E17">
+        <v>5452</v>
+      </c>
+      <c r="F17">
+        <v>5775</v>
+      </c>
+      <c r="G17">
+        <v>3534</v>
+      </c>
+      <c r="J17">
+        <v>4859</v>
+      </c>
+      <c r="K17">
         <v>3905</v>
       </c>
-      <c r="L16">
-        <v>192636</v>
-      </c>
-      <c r="M16">
+      <c r="L17">
+        <v>8324</v>
+      </c>
+      <c r="M17">
         <v>3905</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O17" t="s">
         <v>35</v>
       </c>
-      <c r="Q16">
-        <v>0.92499600000000004</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="Q17">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="U17" t="s">
         <v>18</v>
       </c>
-      <c r="V16">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="W16">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="X16">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="Y16">
+      <c r="V17">
+        <v>0.88</v>
+      </c>
+      <c r="W17">
+        <v>0.81</v>
+      </c>
+      <c r="X17">
+        <v>0.51</v>
+      </c>
+      <c r="Y17">
         <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="U17" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="W17">
-        <v>0.308</v>
-      </c>
-      <c r="X17">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="Y17">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.35">
       <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18">
+        <v>0.84</v>
+      </c>
+      <c r="W18">
+        <v>0.89</v>
+      </c>
+      <c r="X18">
+        <v>0.59</v>
+      </c>
+      <c r="Y18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="U19" t="s">
         <v>20</v>
       </c>
-      <c r="V18">
-        <v>0.45</v>
-      </c>
-      <c r="W18">
-        <v>0.184</v>
-      </c>
-      <c r="X18">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="Y18">
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>0.69</v>
+      </c>
+      <c r="X19">
+        <v>0.52</v>
+      </c>
+      <c r="Y19">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
-      <c r="V19">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="W19">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="X19">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="Y19">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>46053</v>
-      </c>
-      <c r="D20">
-        <v>476</v>
-      </c>
-      <c r="E20">
-        <v>258</v>
-      </c>
-      <c r="F20">
-        <v>636</v>
-      </c>
-      <c r="G20">
-        <v>387</v>
-      </c>
-      <c r="H20">
-        <v>47810</v>
-      </c>
-      <c r="J20">
-        <v>46053</v>
-      </c>
-      <c r="K20">
-        <v>1757</v>
-      </c>
-      <c r="L20">
-        <v>2705</v>
-      </c>
-      <c r="M20">
-        <v>947</v>
-      </c>
-      <c r="P20">
-        <v>0.97985100000000003</v>
-      </c>
-      <c r="Q20">
-        <v>0.96325000000000005</v>
-      </c>
-      <c r="R20">
-        <v>0.97148000000000001</v>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V20">
-        <v>0.79200000000000004</v>
+        <v>0.81</v>
       </c>
       <c r="W20">
-        <v>0.29699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="X20">
-        <v>0.432</v>
+        <v>0.53</v>
       </c>
       <c r="Y20">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>741</v>
+        <v>923</v>
       </c>
       <c r="D21">
-        <v>339</v>
+        <v>2087</v>
       </c>
       <c r="E21">
-        <v>88</v>
+        <v>810</v>
       </c>
       <c r="F21">
-        <v>278</v>
+        <v>2182</v>
       </c>
       <c r="G21">
-        <v>93</v>
-      </c>
-      <c r="H21">
-        <v>1539</v>
+        <v>111</v>
       </c>
       <c r="J21">
-        <v>339</v>
+        <v>2012</v>
       </c>
       <c r="K21">
-        <v>1200</v>
+        <v>1757</v>
       </c>
       <c r="L21">
-        <v>48419</v>
+        <v>2705</v>
       </c>
       <c r="M21">
-        <v>509</v>
+        <v>947</v>
       </c>
       <c r="P21">
-        <v>0.39976400000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.220273</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="R21">
-        <v>0.28403899999999999</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="U21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="W21">
-        <v>0.16900000000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="X21">
-        <v>0.253</v>
+        <v>0.77</v>
       </c>
       <c r="Y21">
-        <v>59</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>64</v>
+        <v>1628</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>1089</v>
       </c>
       <c r="E22">
-        <v>428</v>
+        <v>101</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>564</v>
       </c>
       <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>582</v>
+        <v>1968</v>
       </c>
       <c r="J22">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="K22">
-        <v>154</v>
+        <v>1200</v>
       </c>
       <c r="L22">
-        <v>48330</v>
+        <v>1200</v>
       </c>
       <c r="M22">
-        <v>357</v>
+        <v>509</v>
       </c>
       <c r="P22">
-        <v>0.54522300000000001</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="Q22">
-        <v>0.73539500000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="R22">
-        <v>0.626189</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="U22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V22">
-        <v>0.83899999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="W22">
-        <v>0.73199999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="X22">
-        <v>0.78200000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>455</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>142</v>
+        <v>2255</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>2068</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>1885</v>
       </c>
       <c r="F23">
-        <v>1938</v>
+        <v>1039</v>
       </c>
       <c r="G23">
+        <v>1747</v>
+      </c>
+      <c r="J23">
+        <v>428</v>
+      </c>
+      <c r="K23">
+        <v>154</v>
+      </c>
+      <c r="L23">
+        <v>3200</v>
+      </c>
+      <c r="M23">
+        <v>357</v>
+      </c>
+      <c r="P23">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q23">
+        <v>0.307</v>
+      </c>
+      <c r="R23">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="U23" t="s">
         <v>26</v>
       </c>
-      <c r="H23">
-        <v>2133</v>
-      </c>
-      <c r="J23">
-        <v>1938</v>
-      </c>
-      <c r="K23">
-        <v>195</v>
-      </c>
-      <c r="L23">
-        <v>46820</v>
-      </c>
-      <c r="M23">
-        <v>974</v>
-      </c>
-      <c r="P23">
-        <v>0.66552199999999995</v>
-      </c>
-      <c r="Q23">
-        <v>0.90857900000000003</v>
-      </c>
-      <c r="R23">
-        <v>0.768285</v>
-      </c>
-      <c r="U23" t="s">
-        <v>27</v>
-      </c>
       <c r="V23">
-        <v>0.86499999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="W23">
-        <v>0.80600000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="X23">
-        <v>0.83399999999999996</v>
+        <v>0.87</v>
       </c>
       <c r="Y23">
-        <v>391</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="L24">
-        <v>48758</v>
+        <v>432</v>
       </c>
       <c r="M24">
-        <v>519</v>
+        <v>974</v>
       </c>
       <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" t="e">
-        <v>#DIV/0!</v>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="Q24">
+        <v>0.432</v>
+      </c>
+      <c r="R24">
+        <v>0.71399999999999997</v>
       </c>
       <c r="U24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V24">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="W24">
-        <v>0.60499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
-        <v>0.66300000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="Y24">
-        <v>1251</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>519</v>
+      </c>
+      <c r="P25">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="R25">
+        <v>0.66</v>
+      </c>
+      <c r="U25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25">
+        <v>0.77</v>
+      </c>
+      <c r="W25">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="X25">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Y25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>47000</v>
-      </c>
-      <c r="D25">
-        <v>848</v>
-      </c>
-      <c r="E25">
-        <v>785</v>
-      </c>
-      <c r="F25">
-        <v>2912</v>
-      </c>
-      <c r="G25">
-        <v>519</v>
-      </c>
-      <c r="H25">
-        <v>52064</v>
-      </c>
-      <c r="J25">
-        <v>48758</v>
-      </c>
-      <c r="K25">
+      <c r="C26">
+        <v>6304</v>
+      </c>
+      <c r="D26">
+        <v>5986</v>
+      </c>
+      <c r="E26">
+        <v>3420</v>
+      </c>
+      <c r="F26">
+        <v>3940</v>
+      </c>
+      <c r="G26">
+        <v>4039</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J21:J25)</f>
+        <v>4717</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:M26" si="0">SUM(K21:K25)</f>
         <v>3306</v>
       </c>
-      <c r="L25">
-        <v>195032</v>
-      </c>
-      <c r="M25">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>7537</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
         <v>3306</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O26" t="s">
         <v>35</v>
       </c>
-      <c r="Q25">
-        <v>0.93650100000000003</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="Q26">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="U26" t="s">
         <v>29</v>
       </c>
-      <c r="V25">
+      <c r="V26">
         <v>0.80430000000000001</v>
       </c>
-      <c r="W25">
+      <c r="W26">
         <v>0.59792000000000001</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <v>0.68591999999999997</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{D07343E6-9695-475D-9FEF-2E37DCE5588B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>